--- a/PUERTOS.xlsx
+++ b/PUERTOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juseb\OneDrive\Escritorio\CLOUD-FOG-EDGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Documents\GitHub\CLOUD-FOG-EDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651E418A-0600-4350-ADC2-323D813B55E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9AFC94-9F17-41A3-AF84-5C480A2EC579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -557,18 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20705AC-C121-4B4A-8A98-7196A77930C5}">
-  <dimension ref="B4:K13"/>
+  <dimension ref="B4:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="B13 B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -704,8 +704,11 @@
         <v>5220</v>
       </c>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -729,7 +732,7 @@
         <v>5230</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,6 +747,9 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="L13">
+        <v>5130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PUERTOS.xlsx
+++ b/PUERTOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Documents\GitHub\CLOUD-FOG-EDGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\CLOUD-FOG-EDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9AFC94-9F17-41A3-AF84-5C480A2EC579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DECEA9-1C01-45B2-9110-D2E36236A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SERVIDOR</t>
   </si>
@@ -69,13 +67,16 @@
   </si>
   <si>
     <t>FOG SC</t>
+  </si>
+  <si>
+    <t>MONITOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +101,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,7 +210,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -213,7 +222,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
@@ -557,18 +567,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20705AC-C121-4B4A-8A98-7196A77930C5}">
-  <dimension ref="B4:L13"/>
+  <dimension ref="B4:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +593,10 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -601,8 +613,10 @@
       <c r="K5" s="3">
         <v>5230</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,8 +631,10 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,8 +649,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,12 +666,15 @@
       <c r="F8" s="6">
         <v>5120</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -668,8 +689,10 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -679,7 +702,7 @@
       <c r="F10" s="6">
         <v>5120</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>5240</v>
       </c>
       <c r="H10" s="7">
@@ -688,8 +711,10 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -704,11 +729,12 @@
         <v>5220</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>5130</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -731,8 +757,12 @@
       <c r="K12" s="3">
         <v>5230</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -747,11 +777,31 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>5130</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>5400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PUERTOS.xlsx
+++ b/PUERTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\CLOUD-FOG-EDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DECEA9-1C01-45B2-9110-D2E36236A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F05B6-1666-44E9-A0F8-3A948D7BCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
   </bookViews>
@@ -174,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -195,6 +195,32 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -210,7 +236,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -223,7 +249,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
@@ -567,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20705AC-C121-4B4A-8A98-7196A77930C5}">
-  <dimension ref="B4:M14"/>
+  <dimension ref="B4:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -578,7 +607,7 @@
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:14">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,9 +623,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="M4" s="12"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,9 +644,10 @@
         <v>5230</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13">
+      <c r="M5" s="12"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -632,9 +663,10 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="M6" s="12"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,9 +682,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13">
+      <c r="M7" s="12"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,9 +705,10 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13">
+      <c r="M8" s="12"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -690,9 +724,10 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13">
+      <c r="M9" s="12"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -712,9 +747,10 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="M10" s="12"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -732,9 +768,10 @@
       <c r="L11" s="1">
         <v>5130</v>
       </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="M11" s="13"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -758,11 +795,14 @@
         <v>5230</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="M12" s="12">
         <v>5400</v>
       </c>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="N12" s="1">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -780,9 +820,10 @@
       <c r="L13" s="1">
         <v>5130</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="M13" s="12"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -796,9 +837,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1">
+      <c r="M14" s="12">
         <v>5400</v>
       </c>
+      <c r="N14" s="1">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="N15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PUERTOS.xlsx
+++ b/PUERTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\CLOUD-FOG-EDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F05B6-1666-44E9-A0F8-3A948D7BCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4515B20-6300-45F2-B1E9-5DFC418672D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>SERVIDOR</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>MONITOR</t>
+  </si>
+  <si>
+    <t>10.101.137.86</t>
+  </si>
+  <si>
+    <t>126/36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,18 +608,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20705AC-C121-4B4A-8A98-7196A77930C5}">
-  <dimension ref="B4:N15"/>
+  <dimension ref="A4:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +639,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>130</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,7 +663,10 @@
       <c r="M5" s="12"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>130</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,7 +685,10 @@
       <c r="M6" s="12"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -685,7 +707,10 @@
       <c r="M7" s="12"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,7 +733,10 @@
       <c r="M8" s="12"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +755,10 @@
       <c r="M9" s="12"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>126</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -750,7 +781,10 @@
       <c r="M10" s="12"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>126</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -771,7 +805,10 @@
       <c r="M11" s="13"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,7 +839,10 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>126</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -823,7 +863,10 @@
       <c r="M13" s="12"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>126</v>
+      </c>
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
@@ -844,10 +887,11 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="1:14">
       <c r="N15" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/PUERTOS.xlsx
+++ b/PUERTOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\CLOUD-FOG-EDGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Documents\GitHub\CLOUD-FOG-EDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4515B20-6300-45F2-B1E9-5DFC418672D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA955F8-1214-4C1B-A7CA-C02F09EDE94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -260,11 +260,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
@@ -608,19 +606,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20705AC-C121-4B4A-8A98-7196A77930C5}">
-  <dimension ref="A4:N15"/>
+  <dimension ref="A4:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.875" customWidth="1"/>
-    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,10 +634,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="12"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>130</v>
       </c>
@@ -660,10 +658,10 @@
         <v>5230</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>130</v>
       </c>
@@ -682,10 +680,10 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -704,10 +702,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -730,10 +728,10 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -752,10 +750,10 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>126</v>
       </c>
@@ -778,10 +776,10 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>126</v>
       </c>
@@ -802,10 +800,10 @@
       <c r="L11" s="1">
         <v>5130</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -832,14 +830,14 @@
         <v>5230</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>5400</v>
       </c>
       <c r="N12" s="1">
         <v>5410</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>126</v>
       </c>
@@ -860,14 +858,14 @@
       <c r="L13" s="1">
         <v>5130</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="11"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>126</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1"/>
@@ -880,15 +878,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>5400</v>
       </c>
       <c r="N14" s="1">
         <v>5410</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="N15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/PUERTOS.xlsx
+++ b/PUERTOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEBASTIAN\Documents\GitHub\CLOUD-FOG-EDGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\CLOUD-FOG-EDGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA955F8-1214-4C1B-A7CA-C02F09EDE94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE468B-F768-4CFA-8D34-65878253AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{215A15C2-78B2-42FF-B574-5F62BF82765B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>SERVIDOR</t>
   </si>
@@ -76,13 +76,19 @@
   </si>
   <si>
     <t>126/36</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>noti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +99,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,17 +125,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -158,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -236,44 +224,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="40% - Énfasis2" xfId="5" builtinId="35"/>
-    <cellStyle name="40% - Énfasis3" xfId="7" builtinId="39"/>
-    <cellStyle name="40% - Énfasis5" xfId="8" builtinId="47"/>
-    <cellStyle name="60% - Énfasis1" xfId="4" builtinId="32"/>
-    <cellStyle name="60% - Énfasis2" xfId="6" builtinId="36"/>
-    <cellStyle name="60% - Énfasis5" xfId="9" builtinId="48"/>
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+  <cellStyles count="8">
+    <cellStyle name="40% - Énfasis1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - Énfasis2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Énfasis3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Énfasis5" xfId="6" builtinId="47"/>
+    <cellStyle name="60% - Énfasis1" xfId="3" builtinId="32"/>
+    <cellStyle name="60% - Énfasis5" xfId="7" builtinId="48"/>
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,19 +588,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20705AC-C121-4B4A-8A98-7196A77930C5}">
-  <dimension ref="A4:N14"/>
+  <dimension ref="A4:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,12 +614,10 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>130</v>
       </c>
@@ -652,16 +632,14 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="3">
+        <v>5230</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="3">
-        <v>5230</v>
-      </c>
+      <c r="K5" s="9"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>130</v>
       </c>
@@ -678,12 +656,10 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -700,12 +676,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -726,12 +700,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -748,12 +720,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>126</v>
       </c>
@@ -766,20 +736,16 @@
       <c r="F10" s="6">
         <v>5120</v>
       </c>
-      <c r="G10" s="10">
-        <v>5240</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="7">
         <v>5200</v>
       </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>126</v>
       </c>
@@ -791,19 +757,17 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="8">
+        <v>5220</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="8">
-        <v>5220</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="J11" s="1">
         <v>5130</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" s="10"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -814,30 +778,24 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10">
-        <v>5240</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="7">
         <v>5200</v>
       </c>
-      <c r="I12" s="9">
-        <v>5210</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="H12" s="8">
         <v>5220</v>
       </c>
-      <c r="K12" s="3">
+      <c r="I12" s="3">
         <v>5230</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="11">
+      <c r="J12" s="1"/>
+      <c r="K12" s="9">
         <v>5400</v>
       </c>
-      <c r="N12" s="1">
+      <c r="L12" s="1">
         <v>5410</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>126</v>
       </c>
@@ -850,18 +808,14 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="9">
-        <v>5210</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
         <v>5130</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K13" s="9"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>126</v>
       </c>
@@ -876,17 +830,23 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="11">
+      <c r="K14" s="9">
         <v>5400</v>
       </c>
-      <c r="N14" s="1">
+      <c r="L14" s="1">
         <v>5410</v>
       </c>
     </row>
+    <row r="15" spans="1:12">
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
